--- a/TestINQA.xlsx
+++ b/TestINQA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiyakorolevich/Desktop/TMS/ДЗшка/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1BD769-9A30-164E-8C29-6A05C83F2CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06671D88-4BC1-B049-BF7D-D2B761480D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{385AD379-2106-954B-B8A4-511A4F6D1207}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" activeTab="3" xr2:uid="{385AD379-2106-954B-B8A4-511A4F6D1207}"/>
   </bookViews>
   <sheets>
     <sheet name="Check list" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Bug report" sheetId="3" r:id="rId3"/>
     <sheet name="Отчет о результатах " sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -793,10 +793,10 @@
 </t>
   </si>
   <si>
-    <t>Найдено 7 бага из них:
-Critical = 5
-Major = 1
-Minor = 1</t>
+    <t>Найдено 7 багов, приоритет которых:
+Высокий = 5
+Средний = 1
+Низкий = 1</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1081,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1092,75 +1089,21 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1204,6 +1147,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,12 +1601,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1933,12 +1933,12 @@
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -1989,12 +1989,12 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
@@ -2150,25 +2150,25 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="25" t="str">
+      <c r="G2" s="62" t="str">
         <f>'Check list'!B4</f>
         <v>Создать задачу со всеми заполненными полями</v>
       </c>
@@ -2178,116 +2178,116 @@
       <c r="I2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="25"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="5" t="s">
         <v>156</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="25"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="5" t="s">
         <v>158</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="25"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="5" t="s">
         <v>159</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="25"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>160</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="25"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>104</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="62" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -2296,65 +2296,65 @@
       <c r="I8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="61" t="s">
         <v>162</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="25"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="5" t="s">
         <v>156</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="25"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="25" t="str">
+      <c r="G11" s="62" t="str">
         <f>'Check list'!B6</f>
         <v>Создать задачу только с заполненным Priority</v>
       </c>
@@ -2364,65 +2364,65 @@
       <c r="I11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="61" t="s">
         <v>162</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="25"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="5" t="s">
         <v>163</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="25"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="25" t="str">
+      <c r="G14" s="62" t="str">
         <f>'Check list'!B7</f>
         <v>Создать задачу только с заполненным Desctiption</v>
       </c>
@@ -2432,65 +2432,65 @@
       <c r="I14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="61" t="s">
         <v>162</v>
       </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="5" t="s">
         <v>164</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="25"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="25" t="str">
+      <c r="G17" s="62" t="str">
         <f>'Check list'!B8</f>
         <v>Создать задачу с пустыми значениями</v>
       </c>
@@ -2500,65 +2500,65 @@
       <c r="I17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="61" t="s">
         <v>162</v>
       </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="25"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="5" t="s">
         <v>107</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="25"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="62" t="s">
         <v>165</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2567,65 +2567,65 @@
       <c r="I20" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="25"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="56"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="62" t="s">
         <v>167</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2634,65 +2634,65 @@
       <c r="I23" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="25"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="5" t="s">
         <v>168</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="25"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="56"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="62" t="s">
         <v>169</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -2701,65 +2701,65 @@
       <c r="I26" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="25"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="5" t="s">
         <v>170</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="26"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="25"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="26"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -2768,48 +2768,48 @@
       <c r="I29" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="28"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="5" t="s">
         <v>174</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="63" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -2818,45 +2818,45 @@
       <c r="I31" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="28"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="5" t="s">
         <v>176</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="26"/>
+      <c r="J32" s="56"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G33" s="22" t="s">
@@ -2868,28 +2868,28 @@
       <c r="I33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G34" s="22" t="s">
@@ -2901,28 +2901,28 @@
       <c r="I34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="26" t="s">
         <v>162</v>
       </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G35" s="21" t="s">
@@ -2934,28 +2934,28 @@
       <c r="I35" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G36" s="22" t="s">
@@ -2967,28 +2967,28 @@
       <c r="I36" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="26" t="s">
         <v>162</v>
       </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G37" s="22" t="s">
@@ -3000,28 +3000,28 @@
       <c r="I37" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G38" s="22" t="s">
@@ -3033,28 +3033,28 @@
       <c r="I38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G39" s="22" t="s">
@@ -3066,31 +3066,31 @@
       <c r="I39" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F40" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="52" t="s">
         <v>54</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -3099,48 +3099,48 @@
       <c r="I40" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="51"/>
-      <c r="G41" s="48"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="5" t="s">
         <v>207</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="J41" s="26"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="48" t="s">
         <v>102</v>
       </c>
       <c r="F42" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="52" t="s">
         <v>55</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -3149,45 +3149,45 @@
       <c r="I42" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="56" t="s">
         <v>34</v>
       </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="51"/>
-      <c r="G43" s="48"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="5" t="s">
         <v>210</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="J43" s="26"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G44" s="22" t="s">
@@ -3199,28 +3199,28 @@
       <c r="I44" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J44" s="31" t="s">
+      <c r="J44" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="24" t="s">
         <v>187</v>
       </c>
       <c r="G45" s="22" t="s">
@@ -3232,28 +3232,28 @@
       <c r="I45" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G46" s="22" t="s">
@@ -3265,28 +3265,28 @@
       <c r="I46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G47" s="22" t="s">
@@ -3298,28 +3298,28 @@
       <c r="I47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G48" s="22" t="s">
@@ -3331,28 +3331,28 @@
       <c r="I48" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G49" s="22" t="s">
@@ -3364,18 +3364,93 @@
       <c r="I49" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="25" t="s">
         <v>34</v>
       </c>
       <c r="K49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="J40:J41"/>
@@ -3387,86 +3462,11 @@
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3506,15 +3506,15 @@
       <c r="E1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3523,18 +3523,18 @@
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3543,215 +3543,215 @@
       <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="66" t="s">
         <v>214</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="58" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="33" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="33" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="33" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="58" t="s">
         <v>227</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="58" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="64" t="s">
         <v>229</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="59" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="31" t="s">
         <v>239</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="23" t="s">
         <v>238</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3763,7 +3763,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3773,55 +3773,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="35" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="36" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="37" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="38" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="35" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="3"/>
     </row>
   </sheetData>
